--- a/tests/frameworks/framework_hypertension_dyn.xlsx
+++ b/tests/frameworks/framework_hypertension_dyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54166F70-BB0F-584C-9491-79D87D139B98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4AD2F727-A8C1-5C4D-938A-0A1953F49FC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -1522,9 +1522,6 @@
     <t>screen_yield</t>
   </si>
   <si>
-    <t>Yield among those screened</t>
-  </si>
-  <si>
     <t>undx/(undx+sus)</t>
   </si>
   <si>
@@ -1553,6 +1550,9 @@
   </si>
   <si>
     <t>Hypertension care cascade</t>
+  </si>
+  <si>
+    <t>Screening yield</t>
   </si>
 </sst>
 </file>
@@ -1680,18 +1680,18 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1733,63 +1733,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2729,17 +2673,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2981,87 +2925,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H10">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="22">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="21">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="notContainsBlanks" dxfId="36" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="20">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="notContainsBlanks" dxfId="35" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="19">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="18">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="9">
       <formula>LEN(TRIM(J3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="notContainsBlanks" dxfId="32" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="8">
       <formula>LEN(TRIM(J4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I8">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="13">
       <formula>LEN(TRIM(I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I10">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="11">
       <formula>LEN(TRIM(I9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J10">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="10">
       <formula>LEN(TRIM(J9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="7">
       <formula>LEN(TRIM(J5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="6">
       <formula>LEN(TRIM(J6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="5">
       <formula>LEN(TRIM(J7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(J8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="3">
       <formula>LEN(TRIM(I4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="2">
       <formula>LEN(TRIM(I5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3223,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3355,7 +3299,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
@@ -3366,7 +3310,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3379,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>6</v>
@@ -3388,10 +3332,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -3402,7 +3346,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
@@ -3414,7 +3358,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -3427,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>6</v>
@@ -3451,7 +3395,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
@@ -3462,7 +3406,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -3478,7 +3422,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -3499,7 +3443,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
@@ -3526,7 +3470,7 @@
         <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -3612,7 +3556,7 @@
         <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>27</v>
@@ -3638,7 +3582,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>27</v>
@@ -3741,62 +3685,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(A16&lt;&gt;"",NOT(B16&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15 H18:H25" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H25 H4:H15" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -3861,7 +3805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3873,7 +3817,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>

--- a/tests/frameworks/framework_hypertension_dyn.xlsx
+++ b/tests/frameworks/framework_hypertension_dyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4AD2F727-A8C1-5C4D-938A-0A1953F49FC1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7F9B35D-47EE-0B47-87B3-938221B49039}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -1996,13 +1996,13 @@
       <sheetName val="Cascades"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2505,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3019,7 +3019,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/frameworks/framework_hypertension_dyn.xlsx
+++ b/tests/frameworks/framework_hypertension_dyn.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7F9B35D-47EE-0B47-87B3-938221B49039}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="462" windowWidth="28560" windowHeight="14178"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0869F425-A7FA-FC48-8753-D29CCD6CC6E1}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AC5821BA-1B07-1348-B1A0-918CB7D6347B}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,12 +159,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1463AD83-63D4-EC46-A82A-37905E1D406B}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -462,12 +461,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A9C126D3-9CE6-2E4A-99B4-FCD4674BF8A8}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -505,12 +504,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -678,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A922DFF6-C9D0-AC4E-B73F-8ED95E92610A}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -809,12 +808,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -917,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1043,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1069,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,9 +1509,6 @@
     <t>num_acq</t>
   </si>
   <si>
-    <t>Estimated number of new diabetes cases annually</t>
-  </si>
-  <si>
     <t>Acquisition rate</t>
   </si>
   <si>
@@ -1553,14 +1549,17 @@
   </si>
   <si>
     <t>Screening yield</t>
+  </si>
+  <si>
+    <t>Estimated number of new cases annually</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1645,7 +1644,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1662,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1987,22 +1986,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="About"/>
       <sheetName val="Databook Pages"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Transitions"/>
-      <sheetName val="Characteristics"/>
-      <sheetName val="Parameters"/>
-      <sheetName val="Cascades"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2084,23 +2071,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2136,23 +2106,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2328,23 +2281,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD26B0-D56D-F245-BAAC-C109C33D0DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.47265625" customWidth="1"/>
+    <col min="2" max="2" width="97.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
@@ -2360,22 +2313,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2383,7 +2336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2391,7 +2344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2399,7 +2352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2407,7 +2360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2415,7 +2368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2430,20 +2383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2451,7 +2404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2459,39 +2412,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -2502,23 +2455,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +2488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2549,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2564,7 +2517,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2579,7 +2532,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2594,7 +2547,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2562,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2624,7 +2577,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -2639,7 +2592,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
@@ -2655,7 +2608,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -2688,7 +2641,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D10">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2698,20 +2651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
@@ -2752,7 +2705,7 @@
         <v>dead_other</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>source</v>
@@ -2769,7 +2722,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>sus</v>
@@ -2788,7 +2741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>undx</v>
@@ -2809,7 +2762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>scr</v>
@@ -2830,7 +2783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>dx</v>
@@ -2851,7 +2804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="str">
         <f>Compartments!$A$7</f>
         <v>tx</v>
@@ -2872,7 +2825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="str">
         <f>Compartments!$A$8</f>
         <v>con</v>
@@ -2893,7 +2846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="str">
         <f>Compartments!$A$9</f>
         <v>dead_hyp</v>
@@ -2908,7 +2861,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="str">
         <f>Compartments!$A$10</f>
         <v>dead_other</v>
@@ -3015,21 +2968,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.68359375" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +2999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
@@ -3067,7 +3020,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -3084,7 +3037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3101,7 +3054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3135,7 +3088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -3154,7 +3107,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{E059DFA1-DEC8-FD4C-B0E0-1C201AE3D11B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3164,27 +3117,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.47265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>94</v>
       </c>
@@ -3235,12 +3188,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>35</v>
@@ -3257,12 +3210,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -3275,14 +3228,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -3305,12 +3258,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3323,19 +3276,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -3346,19 +3299,19 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -3371,14 +3324,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -3401,12 +3354,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
@@ -3426,7 +3379,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3449,7 +3402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3474,7 +3427,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -3499,7 +3452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -3524,7 +3477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3551,12 +3504,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>27</v>
@@ -3577,12 +3530,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>27</v>
@@ -3603,7 +3556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3613,7 +3566,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3623,7 +3576,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3633,7 +3586,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3643,7 +3596,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3653,7 +3606,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3663,7 +3616,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3673,7 +3626,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3740,13 +3693,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H25 H4:H15" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H25 H4:H15">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H17" xr:uid="{7A62AA97-0A7F-D045-AFE2-3370EF29DAE1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H17">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3758,7 +3711,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="14" id="{79C48E73-CF69-F74F-BE51-F3C7DB19C5F1}">
-            <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3771,7 +3724,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{75517C10-6949-2342-B373-28F10794D66A}">
-            <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3784,7 +3737,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{90989879-57B1-954E-A7A4-AAAAEA3D4A08}">
-            <xm:f>AND(I6&lt;&gt;"",ISERROR(MATCH(I6,'/Users/robynstuart/Documents/git/atomica/tests/frameworks/[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I6&lt;&gt;"",ISERROR(MATCH(I6,'\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3802,28 +3755,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -3831,7 +3784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -3839,7 +3792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -3855,7 +3808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>

--- a/tests/frameworks/framework_hypertension_dyn.xlsx
+++ b/tests/frameworks/framework_hypertension_dyn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A49A989D-3D71-AC42-B505-B41604F709F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="462" windowWidth="28560" windowHeight="14178"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -159,12 +160,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -461,12 +462,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -504,12 +505,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -534,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -677,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -703,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -808,12 +809,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -916,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1029,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1055,12 +1056,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1068,7 +1069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1094,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
   <si>
     <t>Code Name</t>
   </si>
@@ -1527,9 +1528,6 @@
     <t>Annual number screened positive</t>
   </si>
   <si>
-    <t>num_screen*screen_yield</t>
-  </si>
-  <si>
     <t>Screening sensitivity</t>
   </si>
   <si>
@@ -1552,14 +1550,29 @@
   </si>
   <si>
     <t>Estimated number of new cases annually</t>
+  </si>
+  <si>
+    <t>prop_screened</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>num_screen/(undx+sus)</t>
+  </si>
+  <si>
+    <t>prop_screened*(undx+sus)*screen_yield</t>
+  </si>
+  <si>
+    <t>Screening coverage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1644,7 +1657,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1661,7 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2071,6 +2084,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2106,6 +2136,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2281,23 +2328,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" customWidth="1"/>
-    <col min="2" max="2" width="97.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
@@ -2305,7 +2352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
@@ -2313,22 +2360,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2336,7 +2383,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2344,7 +2391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2352,7 +2399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2360,7 +2407,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2368,7 +2415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2383,20 +2430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2404,7 +2451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2412,39 +2459,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -2455,23 +2502,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2517,7 +2564,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2579,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2547,7 +2594,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2609,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -2577,7 +2624,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -2592,7 +2639,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>97</v>
       </c>
@@ -2608,7 +2655,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -2641,7 +2688,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2651,20 +2698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
@@ -2705,7 +2752,7 @@
         <v>dead_other</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>source</v>
@@ -2722,7 +2769,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>sus</v>
@@ -2741,7 +2788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>undx</v>
@@ -2762,7 +2809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>scr</v>
@@ -2783,7 +2830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>dx</v>
@@ -2804,7 +2851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Compartments!$A$7</f>
         <v>tx</v>
@@ -2825,7 +2872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Compartments!$A$8</f>
         <v>con</v>
@@ -2846,7 +2893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>Compartments!$A$9</f>
         <v>dead_hyp</v>
@@ -2861,7 +2908,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>Compartments!$A$10</f>
         <v>dead_other</v>
@@ -2968,21 +3015,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.68359375" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +3046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
@@ -3020,7 +3067,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -3037,7 +3084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3054,7 +3101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -3071,7 +3118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3088,7 +3135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -3107,7 +3154,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3117,27 +3164,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>94</v>
       </c>
@@ -3188,12 +3235,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>35</v>
@@ -3210,7 +3257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -3235,7 +3282,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -3252,270 +3299,266 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3523,16 +3566,17 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>116</v>
@@ -3541,7 +3585,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3556,17 +3600,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3576,7 +3636,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3586,7 +3646,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3596,7 +3656,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3606,7 +3666,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3616,7 +3676,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3626,7 +3686,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3636,15 +3696,25 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="I7">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
@@ -3652,9 +3722,9 @@
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="I8">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
@@ -3667,39 +3737,39 @@
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(A16&lt;&gt;"",NOT(B16&lt;&gt;""))</formula>
+      <formula>AND(A17&lt;&gt;"",NOT(B17&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H25 H4:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H26 H4:H16" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C26" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H18" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3711,7 +3781,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="14" id="{79C48E73-CF69-F74F-BE51-F3C7DB19C5F1}">
-            <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3724,7 +3794,20 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{75517C10-6949-2342-B373-28F10794D66A}">
-            <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I8&lt;&gt;"",ISERROR(MATCH(I8,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{90989879-57B1-954E-A7A4-AAAAEA3D4A08}">
+            <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3735,19 +3818,6 @@
           </x14:cfRule>
           <xm:sqref>I7</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{90989879-57B1-954E-A7A4-AAAAEA3D4A08}">
-            <xm:f>AND(I6&lt;&gt;"",ISERROR(MATCH(I6,'\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I6</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3755,28 +3825,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -3784,7 +3854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -3792,7 +3862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -3800,7 +3870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -3808,7 +3878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>

--- a/tests/frameworks/framework_hypertension_dyn.xlsx
+++ b/tests/frameworks/framework_hypertension_dyn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A49A989D-3D71-AC42-B505-B41604F709F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{399C2F64-0841-6F41-B055-67FCE36E5231}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
   <si>
     <t>Code Name</t>
   </si>
@@ -1519,9 +1519,6 @@
     <t>screen_yield</t>
   </si>
   <si>
-    <t>undx/(undx+sus)</t>
-  </si>
-  <si>
     <t>pos_screen</t>
   </si>
   <si>
@@ -1552,19 +1549,40 @@
     <t>Estimated number of new cases annually</t>
   </si>
   <si>
-    <t>prop_screened</t>
-  </si>
-  <si>
     <t>proportion</t>
   </si>
   <si>
-    <t>num_screen/(undx+sus)</t>
-  </si>
-  <si>
-    <t>prop_screened*(undx+sus)*screen_yield</t>
-  </si>
-  <si>
-    <t>Screening coverage</t>
+    <t>screen_target</t>
+  </si>
+  <si>
+    <t>Target population for screening programs</t>
+  </si>
+  <si>
+    <t>undx+sus</t>
+  </si>
+  <si>
+    <t>screen_cov</t>
+  </si>
+  <si>
+    <t>num_screen/screen_target</t>
+  </si>
+  <si>
+    <t>screen_cov*screen_target*screen_yield</t>
+  </si>
+  <si>
+    <t>undx/screen_target</t>
+  </si>
+  <si>
+    <t>Screening coverage shares</t>
+  </si>
+  <si>
+    <t>screen_sen</t>
+  </si>
+  <si>
+    <t>Screening rate</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1623,12 +1641,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1659,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1686,6 +1716,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2702,7 +2738,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3165,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3215,7 @@
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3240,7 +3276,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>35</v>
@@ -3286,7 +3322,7 @@
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3310,10 +3346,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -3324,29 +3360,27 @@
         <v>122</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -3355,81 +3389,83 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -3442,24 +3478,22 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
@@ -3474,15 +3508,15 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
@@ -3490,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>5</v>
@@ -3499,21 +3533,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>6</v>
@@ -3524,42 +3556,40 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.16</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>0</v>
       </c>
@@ -3576,23 +3606,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3602,16 +3631,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.16</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -3619,32 +3648,65 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -3706,15 +3768,35 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="I8">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
@@ -3722,9 +3804,9 @@
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="I9">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I8&lt;&gt;""))</formula>
+      <formula>AND(#REF!&lt;&gt;"",NOT(I9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
@@ -3737,39 +3819,39 @@
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND(A11&lt;&gt;"",NOT(B11&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="B10:B11">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(A17&lt;&gt;"",NOT(B17&lt;&gt;""))</formula>
+      <formula>AND(A19&lt;&gt;"",NOT(B19&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H26 H4:H16" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H28 H4:H18" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C26" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C28" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H18" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H20" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3781,7 +3863,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="14" id="{79C48E73-CF69-F74F-BE51-F3C7DB19C5F1}">
-            <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I4&lt;&gt;"",ISERROR(MATCH(I4,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3794,7 +3876,20 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{75517C10-6949-2342-B373-28F10794D66A}">
-            <xm:f>AND(I8&lt;&gt;"",ISERROR(MATCH(I8,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <xm:f>AND(I9&lt;&gt;"",ISERROR(MATCH(I9,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{90989879-57B1-954E-A7A4-AAAAEA3D4A08}">
+            <xm:f>AND(I8&lt;&gt;"",ISERROR(MATCH(I8,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -3804,19 +3899,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>I8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{90989879-57B1-954E-A7A4-AAAAEA3D4A08}">
-            <xm:f>AND(I7&lt;&gt;"",ISERROR(MATCH(I7,'/Users/robynstuart/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\robynstuart\Documents\git\atomica\tests\frameworks\[framework_diabetes.xlsx]Databook Pages'!#REF!,0)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3840,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>

--- a/tests/frameworks/framework_hypertension_dyn.xlsx
+++ b/tests/frameworks/framework_hypertension_dyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{399C2F64-0841-6F41-B055-67FCE36E5231}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4938BDD2-246C-9E47-A3F9-0F0B58E262E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="119">
   <si>
     <t>Code Name</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>tx</t>
   </si>
   <si>
-    <t>initiate</t>
-  </si>
-  <si>
     <t>loss</t>
   </si>
   <si>
@@ -1300,18 +1297,12 @@
     <t>number</t>
   </si>
   <si>
-    <t>diag</t>
-  </si>
-  <si>
     <t>num_diag</t>
   </si>
   <si>
     <t>num_initiate</t>
   </si>
   <si>
-    <t>Initiation rate</t>
-  </si>
-  <si>
     <t>Annual number of new diagnoses</t>
   </si>
   <si>
@@ -1324,9 +1315,6 @@
     <t>Screened</t>
   </si>
   <si>
-    <t>screen</t>
-  </si>
-  <si>
     <t>all_screened</t>
   </si>
   <si>
@@ -1384,12 +1372,6 @@
     <t>Targetable</t>
   </si>
   <si>
-    <t>num_diag/max(scr,num_diag)</t>
-  </si>
-  <si>
-    <t>num_initiate/max(dx,num_initiate)</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1525,15 +1507,6 @@
     <t>Annual number screened positive</t>
   </si>
   <si>
-    <t>Screening sensitivity</t>
-  </si>
-  <si>
-    <t>pos_screen/max(undx,pos_screen)</t>
-  </si>
-  <si>
-    <t>Probability of a positive confirmation following screening</t>
-  </si>
-  <si>
     <t>Background mortality rate</t>
   </si>
   <si>
@@ -1574,15 +1547,6 @@
   </si>
   <si>
     <t>Screening coverage shares</t>
-  </si>
-  <si>
-    <t>screen_sen</t>
-  </si>
-  <si>
-    <t>Screening rate</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
 </sst>
 </file>
@@ -2382,81 +2346,81 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2481,18 +2445,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2568,15 +2532,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -2587,10 +2551,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2617,10 +2581,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2635,7 +2599,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2650,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -2662,10 +2626,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -2677,10 +2641,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -2693,10 +2657,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -2737,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2749,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
@@ -2795,7 +2759,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2813,7 +2777,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2821,7 +2785,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2833,16 +2797,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2855,15 +2819,15 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2877,14 +2841,14 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2897,15 +2861,15 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2918,15 +2882,15 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3079,24 +3043,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3105,87 +3069,87 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3201,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3243,21 +3207,21 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7">
@@ -3268,18 +3232,18 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="7">
@@ -3290,18 +3254,18 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -3311,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -3320,13 +3284,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -3338,18 +3302,18 @@
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -3357,7 +3321,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>5</v>
@@ -3366,13 +3330,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -3380,22 +3344,22 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -3405,22 +3369,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -3428,287 +3392,229 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.2</v>
+      </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.16</v>
+      </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3718,7 +3624,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3728,7 +3634,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3738,7 +3644,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3747,46 +3653,6 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
@@ -3829,30 +3695,20 @@
       <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
+  <conditionalFormatting sqref="B15:B16">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND(A19&lt;&gt;"",NOT(B19&lt;&gt;""))</formula>
+      <formula>AND(A15&lt;&gt;"",NOT(B15&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H28 H4:H18" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H24 H4:H14" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C28" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H16" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C24" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H20" xr:uid="{00000000-0002-0000-0500-000002000000}">
-      <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3922,26 +3778,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3949,7 +3805,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3957,15 +3813,15 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
